--- a/team_specific_matrix/Brescia_B.xlsx
+++ b/team_specific_matrix/Brescia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2105263157894737</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5263157894736842</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1578947368421053</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1052631578947368</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.4</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0625</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0625</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S6">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.15</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.025</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.15</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="R8">
-        <v>0.2</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="S8">
-        <v>0.275</v>
+        <v>0.3855421686746988</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07317073170731707</v>
+        <v>0.1054852320675106</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01626016260162602</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04878048780487805</v>
+        <v>0.05485232067510549</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1300813008130081</v>
+        <v>0.1181434599156118</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01626016260162602</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2195121951219512</v>
+        <v>0.219409282700422</v>
       </c>
       <c r="R10">
-        <v>0.1138211382113821</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="S10">
-        <v>0.3821138211382114</v>
+        <v>0.3713080168776371</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1904761904761905</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K11">
-        <v>0.2857142857142857</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="L11">
-        <v>0.3809523809523809</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.375</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.09090909090909091</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J15">
-        <v>0.2727272727272727</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K15">
-        <v>0.09090909090909091</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1818181818181818</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3636363636363636</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.09090909090909091</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6363636363636364</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="K16">
-        <v>0.09090909090909091</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.09090909090909091</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09090909090909091</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.25</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="I17">
-        <v>0.02777777777777778</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.05555555555555555</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="I18">
-        <v>0.04</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="J18">
-        <v>0.68</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.16</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2842105263157895</v>
+        <v>0.2642487046632124</v>
       </c>
       <c r="I19">
-        <v>0.02105263157894737</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="J19">
-        <v>0.4421052631578947</v>
+        <v>0.4455958549222798</v>
       </c>
       <c r="K19">
-        <v>0.1052631578947368</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.02105263157894737</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1263157894736842</v>
+        <v>0.1243523316062176</v>
       </c>
     </row>
   </sheetData>
